--- a/planilha_teste.xlsx
+++ b/planilha_teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive - Insper - Institudo de Ensino e Pesquisa\Projeto 1\C.DadosP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/alisonao_al_insper_edu_br/Documents/Insper/2023.2/Ciência de Dados/C.DadosP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E6468A-5387-4D2E-8129-68733E097DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{B0E6468A-5387-4D2E-8129-68733E097DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{228067DF-FC5C-4829-AD8C-1A06A69C9D4D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,52 +33,52 @@
     <t>Acionável/Direcionável/Não Acionável</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Quando vi o lançamento pensei que finalmente poderia me livrar dos ebook distribuídos pela net de graça, quando vi o preço mudei de ideia, espero que ninguém compre, queremos livros digitais e democráticos com preços acessíveis, não somos trampolim para a riqueza, um livro digital não utiliza tinta ou papel, não precisa de distribuição física e dispensa muita mão de obra, tudo isso deveria contribuir para que o valor fosse mais acessível.</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>É incrível como esses escritores e "intelectuais" colocam no cristianismo a responsabilidade por todos os males do universo e simplesmente ignoram o avanço do islã radical que quer botar hejab e burca na cabeça de cada mulher do mundo, e que deseja subjugar a mulher ao extremo, a ponto dos países árabes a mulher ser condenada a morte por ter sido estuprada, e ainda querem impor suas lei seja onde quer que cheguem... Mas a culpa de tudo são os cristãos.. Enfim, é um livro de profundo mal gosto, preconceituoso, irresponsável e que só faz piorar e embotar mais ainda as cabeças fracas de pessoas influenciáveis. Como a autora afirma que isso é uma distopia e depois afirma que tem grandes chances de acontecer? Com qual parâmetro verificável essa escritora usou para atestar o que disse, ou só tirou daquele lugar mesmo? De lixo ideológico as universidades brasileiras já estão cheias, não precisamos de mais entulho traduzido para o português.</t>
+  </si>
+  <si>
+    <t>Se desse pra devolver eu devolvia, nao é por eu nao pensar igual ao autor, mas achei uma coletanea muito cansativa e repetitiva. Vai ser um tijolo abandonado aqui em casa.</t>
+  </si>
+  <si>
+    <t>Futilidade, inutilidade, desperdício de papel, tempo e dinheiro. Nem de graça queremos um livro como este. Vai perder seu tempo.</t>
+  </si>
+  <si>
+    <t>O autor tenta mostrar outro lado do livro, buscando referências bibliográficas que contrariem as tradicionais. Mas as referências que o autor usa são únicas e ele quer usar como prova. Um livro radical que quer acusar os negros de serem culpados pela própria escravidão, desmerecer as invenções e artistas brasileiros, qualificando ingleses e americanos ao nível de Reis e heróis. Além do autor citar alguns radicais políticos de direita como referência. E para finalizar o livro, o autor poderia ter falado de alguma qualidade nacional, resolveu alfinetar "os comunistas". Perda de tempo.</t>
+  </si>
+  <si>
+    <t>Começou boa istoria, no meio um pouco enrolado, depois embromou no romance, dando para saber que o violão era o irmão mais novo! Mas é diferente, com um mundo novo, só por isso deve ser expandindo! Espero que o próximo seja melhor</t>
+  </si>
+  <si>
+    <t>Bem, eu nem sei por onde começar. A história é a representação do machismo mais repugnante que se possa imaginar. Arthur é um ESCROTO! Eu jamais nunca nem com uma arma apontada pra minha cabeça ficaria com um homem nojento desses. Fiquei chocada com a forma degradante como a figura feminina é retratada: sempre interesseira e fútil a não ser que seja pura, virgem e pudica como a protagonista. A autora também presta uma gama de desserviços sendo extremamente preconceituosa: pílula do dia seguinte NÃO É ABORTO! Uma estudante universitária jamais teria um pensamento tão estúpido; a forma totalmente desrespeitosa como tratou o tema do estrupo; e a pessoa gostar de BDSM não diz nada sobre o caráter dela! Matheus não deixa de ser uma boa pessoa pq gosta de chicotinho de sete pontas desde que haja CONCENTIMENTO! Coisa que o Sr. Redenção nunca solicitou a Maiana! Há outras questões que eu achei igualmente repugnantes mas essas são as que quase me fizeram vomitar!</t>
+  </si>
+  <si>
+    <t>Menos do menos, não mais do mesmo. As dicas da obra são lugar-comum, não trazem novidade alguma. E são pouco producentes.</t>
+  </si>
+  <si>
+    <t>Meu box veio todo detonado. Fiquei triste porque nunca tive problemas com a Amazon. Uma pena. Demorei tanto pra me decidir comprar esse box e quando compro vem assim.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>O e-book possui erro de formatação de capítulos. Entre os capítulos "Theon" e "Daenerys" (posição 4158) não possui identificação de um novo capítulo. O conteúdo do texto pode levar a uma má interpretação do conteúdo, já que por coincidência, o texto faz menção à um local ou personagem. Espero que o erro seja corrigido.</t>
+  </si>
+  <si>
+    <t>a formatação no Kindle é ridícula, problema antigo que não foi resolvido. Até quando Amazon? Seus clientes esperam um produto melhor</t>
+  </si>
+  <si>
+    <t>Comprei dois livros e os dois vieram super amassados, um na parte de baixo, e  outro na parte de cima, não só a capa, as folhas também.</t>
+  </si>
+  <si>
     <t>Para quem gosta de poemas simples, esse é o livro ideal! A autora nos faz refletir sobre alguns elementos comuns na vida das mulheres de um jeito bem leve</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Quando vi o lançamento pensei que finalmente poderia me livrar dos ebook distribuídos pela net de graça, quando vi o preço mudei de ideia, espero que ninguém compre, queremos livros digitais e democráticos com preços acessíveis, não somos trampolim para a riqueza, um livro digital não utiliza tinta ou papel, não precisa de distribuição física e dispensa muita mão de obra, tudo isso deveria contribuir para que o valor fosse mais acessível.</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>É incrível como esses escritores e "intelectuais" colocam no cristianismo a responsabilidade por todos os males do universo e simplesmente ignoram o avanço do islã radical que quer botar hejab e burca na cabeça de cada mulher do mundo, e que deseja subjugar a mulher ao extremo, a ponto dos países árabes a mulher ser condenada a morte por ter sido estuprada, e ainda querem impor suas lei seja onde quer que cheguem... Mas a culpa de tudo são os cristãos.. Enfim, é um livro de profundo mal gosto, preconceituoso, irresponsável e que só faz piorar e embotar mais ainda as cabeças fracas de pessoas influenciáveis. Como a autora afirma que isso é uma distopia e depois afirma que tem grandes chances de acontecer? Com qual parâmetro verificável essa escritora usou para atestar o que disse, ou só tirou daquele lugar mesmo? De lixo ideológico as universidades brasileiras já estão cheias, não precisamos de mais entulho traduzido para o português.</t>
-  </si>
-  <si>
-    <t>Se desse pra devolver eu devolvia, nao é por eu nao pensar igual ao autor, mas achei uma coletanea muito cansativa e repetitiva. Vai ser um tijolo abandonado aqui em casa.</t>
-  </si>
-  <si>
-    <t>Futilidade, inutilidade, desperdício de papel, tempo e dinheiro. Nem de graça queremos um livro como este. Vai perder seu tempo.</t>
-  </si>
-  <si>
-    <t>O autor tenta mostrar outro lado do livro, buscando referências bibliográficas que contrariem as tradicionais. Mas as referências que o autor usa são únicas e ele quer usar como prova. Um livro radical que quer acusar os negros de serem culpados pela própria escravidão, desmerecer as invenções e artistas brasileiros, qualificando ingleses e americanos ao nível de Reis e heróis. Além do autor citar alguns radicais políticos de direita como referência. E para finalizar o livro, o autor poderia ter falado de alguma qualidade nacional, resolveu alfinetar "os comunistas". Perda de tempo.</t>
-  </si>
-  <si>
-    <t>Começou boa istoria, no meio um pouco enrolado, depois embromou no romance, dando para saber que o violão era o irmão mais novo! Mas é diferente, com um mundo novo, só por isso deve ser expandindo! Espero que o próximo seja melhor</t>
-  </si>
-  <si>
-    <t>Bem, eu nem sei por onde começar. A história é a representação do machismo mais repugnante que se possa imaginar. Arthur é um ESCROTO! Eu jamais nunca nem com uma arma apontada pra minha cabeça ficaria com um homem nojento desses. Fiquei chocada com a forma degradante como a figura feminina é retratada: sempre interesseira e fútil a não ser que seja pura, virgem e pudica como a protagonista. A autora também presta uma gama de desserviços sendo extremamente preconceituosa: pílula do dia seguinte NÃO É ABORTO! Uma estudante universitária jamais teria um pensamento tão estúpido; a forma totalmente desrespeitosa como tratou o tema do estrupo; e a pessoa gostar de BDSM não diz nada sobre o caráter dela! Matheus não deixa de ser uma boa pessoa pq gosta de chicotinho de sete pontas desde que haja CONCENTIMENTO! Coisa que o Sr. Redenção nunca solicitou a Maiana! Há outras questões que eu achei igualmente repugnantes mas essas são as que quase me fizeram vomitar!</t>
-  </si>
-  <si>
-    <t>Menos do menos, não mais do mesmo. As dicas da obra são lugar-comum, não trazem novidade alguma. E são pouco producentes.</t>
-  </si>
-  <si>
-    <t>Meu box veio todo detonado. Fiquei triste porque nunca tive problemas com a Amazon. Uma pena. Demorei tanto pra me decidir comprar esse box e quando compro vem assim.</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>O e-book possui erro de formatação de capítulos. Entre os capítulos "Theon" e "Daenerys" (posição 4158) não possui identificação de um novo capítulo. O conteúdo do texto pode levar a uma má interpretação do conteúdo, já que por coincidência, o texto faz menção à um local ou personagem. Espero que o erro seja corrigido.</t>
-  </si>
-  <si>
-    <t>a formatação no Kindle é ridícula, problema antigo que não foi resolvido. Até quando Amazon? Seus clientes esperam um produto melhor</t>
-  </si>
-  <si>
-    <t>Comprei dois livros e os dois vieram super amassados, um na parte de baixo, e  outro na parte de cima, não só a capa, as folhas também.</t>
   </si>
 </sst>
 </file>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +440,7 @@
     <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,108 +448,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
